--- a/free_recall_SHINY/Test Data/Version D Guess Recall Data.xlsx
+++ b/free_recall_SHINY/Test Data/Version D Guess Recall Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Guess-Test Project\GRAM 2016 Recall Experiments\Recall Data Files\Version D\Good Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\lrd\free_recall_SHINY\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4C2B52-2D83-4D6E-842E-C9118767BF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess Data" sheetId="1" r:id="rId1"/>
@@ -44,15 +45,9 @@
     <t>ROADS ENVIRONMENT</t>
   </si>
   <si>
-    <t>VANITY SCALE TILE CURLING IRON SOAP COMB LOTION DOEDORANT MOUTHWASH TOOTHBRUSH PLLUNGER FAUCET RAZOR  TOOTH BRUSH DRYER</t>
-  </si>
-  <si>
     <t>WOOD CHISEL SCREWS LATHE LEVEL SAWHORSE DRILL HINGE AXE SANDER AWAL BOLTS HAMMER</t>
   </si>
   <si>
-    <t>KNOCK MAUVE LADDER BOULDER BLISTER FOUL LASER DAY BORTH EDGER PLANTER TROWEL SPADE SHEARDS BASKET PLOW PICK COMPOST OFFICER CELL JAIL GUARD DETECTIVE TATTOO SHACKLE NEEDLE CAFETERIA COTTAGE TRAILER IGLLOO BEDROM TOWNHOME EBONY SPIDER SHARDOW WITHC PANTHER BRUISE ASH PEPPER TUXEDO TIRES ROAD GAS ALCOHOL BLOOD OCEAN ELBOWS HEART HEAD TONGUE ARMS FINGERS HANDS FEET SKIN TOOTH MOUTH LIVER BRAIN SWEET TEA CIDER CHAISE FURNITURE COOFFEE TABLE END TABLE MIRROR CURLING IRON BRUSH BOOKCASE LOVE SEAT CRIB TV COUCH PIANOLEVEL SCREWS DRILL  CLOTHES WEDGE LATHE AWL AXE NAILS AX</t>
-  </si>
-  <si>
     <t>A1DFATF67HIBNI</t>
   </si>
   <si>
@@ -182,99 +177,6 @@
     <t>shank  breakout  lockdown  criminal  rifles</t>
   </si>
   <si>
-    <t xml:space="preserve">fang obsidian limousine asphault pavement celery curling iron shoulders   liver cider wine lava marshmallow cloud silk suede pudding sander vise   screws beer chest cot crib cradle book case ash tweezers soap tile   shampoo vanity </t>
-  </si>
-  <si>
-    <t>kale  beets  lettuce  strawberry  foul  laser  jacket  ladder  day  asparaguss  pumpkin  turnip  blister  wizard  zone  dairy  foam  gauze  cloak  land   beverage  knob  otter  wheel  tulip  sponge  clouds  pepper  witch  river  alchol  mercury  lake  face  tongue  hand  finger  stomach  brain  foot  elbow  tooth  pelvis  mouth  lungs  liver  head  legs  heart  knee  tears  soap  sweat  skin  hair  snow  plush  kitten  soda  blood  syrup  cream  wine  gasoline  pillow  lane  brain  aunt  switch  horn  wine  pupil  bruise  pick  tea  vinegar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make up  concealer   eye shadow  nails  bolts  lake  lava  mercury  sander  sandpaper  mouth  tongue  shoulders  elbow  kiss  ocean  marshmallows  lollipop  otter  lint  silk  planter  ax  cell  pistol  weights  cafeteria  guard  bunk bed  ottoman  love seat  bookshelf  television  neck  sweat  tears  tea  avenue  detour  pantyhose  headband  bobby pin  brush  comb  legs  pelvis  heart         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard  anvil  river  mauve  iron  sandpaper  sander  officer  piano  lava  tepee  golf  penthouse  barracks  pistol  jazz  room  townhouse  weights  spike  boat  couch  rocking chair  scythe  cauliflower  lettuce  kale      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainbow  clouds  finger  mouth  head  neck  tooth  awl  lathe  wrench  drill  rocking chair  nails  screws  bolts  sawhorse  cottage  canyon  ocean  jellyfish  lake  foot  leg  pelvis  eyebrow  gown  ring  veil  slip  diamond  brooch  tuxedo  eye  heart  lungs  armoir  bed  brush  mat  shampoo  mirror  cabinet  ottoman  love seat  chaise  couch  stomach  tulip      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">make up eye shadow gown slip diamonds pendant headband lipstick veil   hat jeans shirt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">curling iron vanity mouthwash deodorant soap tile shampoo loofah   tweezers </t>
-  </si>
-  <si>
-    <t>cloak land beverage  otter  wheel  tulip  stars  dancer  knob  vote  cheek  mist  lollipop  costume  pail  dairy  foam  gauze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lipstick  makeup  eye shadow  diamonds  headband  bobby pin  bracelet  concealer  brooch  pendant  slip  shirt  pantyhose  pearls  ring  scarf  </t>
-  </si>
-  <si>
-    <t>face   finger  tongue  stomach  foot  elbow  shoulders  hand  brain  neck  pelvis  tooth  lungs  mouth  legs  head  heart  kn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incense  fang  spike  tee  thermometer  moose  yard  zoo  noodle  gghoul  good  fog  ranch  scout  canister  moisture  dome  </t>
-  </si>
-  <si>
-    <t>comb  hair dryer  tweezers  medicine  vanity  deodorant  mat  brush  scale  lotion  candle  curling iron  soap  shampoo  mouthwash  pl</t>
-  </si>
-  <si>
-    <t>screws  axe  crowbar  eaisel  wrench  awl  bolts  glue  hinge  file  drill  nails  wedge  sawhorse  vise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diary  Star  Mist  Lollipop  Otter  Shrub  Wheel  Costume  Tulip    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diamonds  Brooch  Headband  Bobby Pins  Eye shadow  Make Up  panty house   Concealer  Dress  </t>
-  </si>
-  <si>
-    <t>elbow   eyebrow  mouth  tongue   heart  stomach  pelvis  tooth  face  lungs  shoulders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scout  paperclip  zoo  noodle  dome  spike  tee  ranch  moose  thermometer   </t>
-  </si>
-  <si>
-    <t>brush  mat  scale  tile  mouthwash  lotion  comb  candle  tweezers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wedge  sandpaper  sander  bolts  nails  ax  level  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knob  nectar  dairy   pail  otter  cheese  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeans  pantyhose  slip  veil  ring  </t>
-  </si>
-  <si>
-    <t>knee  beer  anchor  river</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canister  spike  tee  lava  panther  anchor  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">soap   brush   comb  ivory  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sander  crowbar  sandpaper  vise  crowbar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gauze  cheek  tulip  dairy  otter  pail  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pantyhose  veil  gown  make up  eye shadow  shirt  jeans  pearls  diamond  bobby pin  slip  brooch  ring  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">head   brain  mouth  tooth  foot  finger  elbow  knee  heart  liver  stomach  pelvis  leg  eyebrow  shoulder  </t>
-  </si>
-  <si>
-    <t>witch  tuxedo  obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loofah  soap  deodorant  mat  curling iron  shaver  shampoo  tile  plunger  brush  mirror      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sander   sandpaper  lathe  awl  wrench  bolts  nails  screws  sawhorse  drill  chisel  </t>
-  </si>
-  <si>
     <t>Version D Final Recall Data</t>
   </si>
   <si>
@@ -342,12 +244,111 @@
   </si>
   <si>
     <t>L13</t>
+  </si>
+  <si>
+    <t>KNOCK MAUVE LADDER BOULDER BLISTER FOUL LASER DAY BORTH EDGER PLANTER TROWEL SPADE SHEARDS BASKET PLOW PICK COMPOST OFFICER CELL JAIL GUARD DETECTIVE TATTOO SHACKLE NEEDLE CAFETERIA COTTAGE TRAILER IGLLOO BEDROM TOWNHOME EBONY SPIDER SHARDOW WITHC PANTHER BRUISE ASH PEPPER TUXEDO TIRES ROAD GAS ALCOHOL BLOOD OCEAN ELBOWS HEART HEAD TONGUE ARMS FINGERS HANDS FEET SKIN TOOTH MOUTH LIVER BRAIN SWEET TEA CIDER CHAISE FURNITURE COOFFEE TABLE END TABLE MIRROR CURLING IRON BRUSH BOOKCASE LOVE SEAT CRIB TV COUCH PIANOLEVEL SCREWS DRILL CLOTHES WEDGE LATHE AWL AXE NAILS AX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fang obsidian limousine asphault pavement celery curling iron shoulders liver cider wine lava marshmallow cloud silk suede pudding sander vise screws beer chest cot crib cradle book case ash tweezers soap tile shampoo vanity </t>
+  </si>
+  <si>
+    <t>kale beets lettuce strawberry foul laser jacket ladder day asparaguss pumpkin turnip blister wizard zone dairy foam gauze cloak land beverage knob otter wheel tulip sponge clouds pepper witch river alchol mercury lake face tongue hand finger stomach brain foot elbow tooth pelvis mouth lungs liver head legs heart knee tears soap sweat skin hair snow plush kitten soda blood syrup cream wine gasoline pillow lane brain aunt switch horn wine pupil bruise pick tea vinegar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard anvil river mauve iron sandpaper sander officer piano lava tepee golf penthouse barracks pistol jazz room townhouse weights spike boat couch rocking chair scythe cauliflower lettuce kale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainbow clouds finger mouth head neck tooth awl lathe wrench drill rocking chair nails screws bolts sawhorse cottage canyon ocean jellyfish lake foot leg pelvis eyebrow gown ring veil slip diamond brooch tuxedo eye heart lungs armoir bed brush mat shampoo mirror cabinet ottoman love seat chaise couch stomach tulip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">make up concealer eye shadow nails bolts lake lava mercury sander sandpaper mouth tongue shoulders elbow kiss ocean marshmallows lollipop otter lint silk planter ax cell pistol weights cafeteria guard bunk bed ottoman love seat bookshelf television neck sweat tears tea avenue detour pantyhose headband bobby pin brush comb legs pelvis heart </t>
+  </si>
+  <si>
+    <t>VANITY SCALE TILE CURLING IRON SOAP COMB LOTION DOEDORANT MOUTHWASH TOOTHBRUSH PLLUNGER FAUCET RAZOR TOOTH BRUSH DRYER</t>
+  </si>
+  <si>
+    <t>cloak land beverage otter wheel tulip stars dancer knob vote cheek mist lollipop costume pail dairy foam gauze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lipstick makeup eye shadow diamonds headband bobby pin bracelet concealer brooch pendant slip shirt pantyhose pearls ring scarf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">incense fang spike tee thermometer moose yard zoo noodle gghoul good fog ranch scout canister moisture dome </t>
+  </si>
+  <si>
+    <t>comb hair dryer tweezers medicine vanity deodorant mat brush scale lotion candle curling iron soap shampoo mouthwash pl</t>
+  </si>
+  <si>
+    <t>screws axe crowbar eaisel wrench awl bolts glue hinge file drill nails wedge sawhorse vise</t>
+  </si>
+  <si>
+    <t>brush mat scale tile mouthwash lotion comb candle tweezers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wedge sandpaper sander bolts nails ax level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeans pantyhose slip veil ring </t>
+  </si>
+  <si>
+    <t>knee beer anchor river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canister spike tee lava panther anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sander crowbar sandpaper vise crowbar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauze cheek tulip dairy otter pail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantyhose veil gown make up eye shadow shirt jeans pearls diamond bobby pin slip brooch ring </t>
+  </si>
+  <si>
+    <t>witch tuxedo obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make up eye shadow gown slip diamonds pendant headband lipstick veil hat jeans shirt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">curling iron vanity mouthwash deodorant soap tile shampoo loofah tweezers </t>
+  </si>
+  <si>
+    <t>face finger tongue stomach foot elbow shoulders hand brain neck pelvis tooth lungs mouth legs head heart kn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diary Star Mist Lollipop Otter Shrub Wheel Costume Tulip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamonds Brooch Headband Bobby Pins Eye shadow Make Up panty house Concealer Dress </t>
+  </si>
+  <si>
+    <t>elbow eyebrow mouth tongue heart stomach pelvis tooth face lungs shoulders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scout paperclip zoo noodle dome spike tee ranch moose thermometer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">knob nectar dairy pail otter cheese </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soap brush comb ivory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">head brain mouth tooth foot finger elbow knee heart liver stomach pelvis leg eyebrow shoulder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sander sandpaper lathe awl wrench bolts nails screws sawhorse drill chisel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loofah soap deodorant mat curling iron shaver shampoo tile plunger brush mirror </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,6 +984,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1018,6 +1036,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1193,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -1208,21 +1243,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1244,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1258,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,437 +1335,437 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AG6589">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG6589">
     <sortCondition ref="B2:B6589"/>
     <sortCondition ref="A2:A6589"/>
   </sortState>
@@ -1740,11 +1775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,21 +1791,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1778,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -1792,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -1806,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -1820,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -1834,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1848,433 +1883,433 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2284,11 +2319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,12 +2334,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -2312,47 +2347,47 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
